--- a/SMA - Software Measurement & Analysis/Assignment-03/SMA-TamDo-Ass03-ver0.1.xlsx
+++ b/SMA - Software Measurement & Analysis/Assignment-03/SMA-TamDo-Ass03-ver0.1.xlsx
@@ -27,17 +27,18 @@
     <t>Question</t>
   </si>
   <si>
-    <t>1. Làm sao để biết được đã giảm 10%</t>
-  </si>
-  <si>
-    <t>2. Làm sao để biết mức giảm này là hợp lý</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
-    <t>1. Tính tổng thời gian ban đầu của schedule
-2. Tính tổng thời gian sau khi giảm 10% ( = Tổng thời gian ban đầu của schedule * 0.9)
+    <t>1. How did you know it reduced by 10%?</t>
+  </si>
+  <si>
+    <t>1. The original time of schedule.
+2. The time after reduced by 10% ( = The original time of schedule * 0.9)
+3. The deviation between the time reduced and the time after reduced by 10%</t>
+  </si>
+  <si>
+    <t>2. Tính tổng thời gian sau khi giảm 10% ( = Tổng thời gian ban đầu của schedule * 0.9)
 3. Tính độ lệch của tổng thời gian đã giảm với tổng thời gian sau khi giảm 10%</t>
   </si>
 </sst>
@@ -132,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -140,11 +141,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,22 +444,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F4:H7"/>
+  <dimension ref="F4:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:8">
+    <row r="4" spans="6:9">
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="6:8">
+    <row r="5" spans="6:9">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
@@ -463,25 +468,26 @@
         <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9" ht="120">
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="6:8" ht="135">
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="6:8">
-      <c r="F7" s="5"/>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="6:9">
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
   </sheetData>
